--- a/hiqu/Performance Evaluation/September 2024/Project Summary/Project Performance Report.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Project Summary/Project Performance Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Project Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD0B8E4-E77E-46EA-A5C7-07C2CD92646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E553093-845E-43CA-89A6-080A60DBEE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -638,7 +638,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -802,6 +802,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -814,18 +820,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -838,7 +844,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,13 +856,7 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1233,10 +1236,10 @@
   <dimension ref="B2:AE36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,106 +1275,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
     </row>
     <row r="3" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
@@ -1385,12 +1388,12 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="61"/>
       <c r="L6" s="45" t="s">
         <v>72</v>
@@ -1398,10 +1401,10 @@
       <c r="M6" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="65" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="18"/>
@@ -1460,8 +1463,8 @@
       <c r="M7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="66"/>
-      <c r="O7" s="64"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="17" t="s">
         <v>3</v>
@@ -1621,7 +1624,7 @@
       <c r="R10" s="28">
         <v>58</v>
       </c>
-      <c r="S10" s="67">
+      <c r="S10" s="55">
         <f t="shared" si="0"/>
         <v>-14</v>
       </c>
@@ -1644,8 +1647,8 @@
         <f t="shared" ref="AC10:AC30" si="3">Q10+U10+Y10</f>
         <v>52</v>
       </c>
-      <c r="AD10" s="30">
-        <f t="shared" ref="AC10:AD30" si="4">G10+H10+I10+J10+K10+L10+M10+N10+O10+R10+Z10+Z10</f>
+      <c r="AD10" s="73">
+        <f t="shared" ref="AD10:AD30" si="4">G10+H10+I10+J10+K10+L10+M10+N10+O10+R10+Z10+Z10</f>
         <v>148</v>
       </c>
     </row>
@@ -1704,7 +1707,7 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AD11" s="30">
+      <c r="AD11" s="73">
         <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
@@ -1837,7 +1840,7 @@
       <c r="R14" s="28">
         <v>22</v>
       </c>
-      <c r="S14" s="67">
+      <c r="S14" s="55">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
@@ -1858,7 +1861,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AD14" s="30">
+      <c r="AD14" s="73">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
@@ -2642,7 +2645,7 @@
       <c r="R29" s="28">
         <v>112</v>
       </c>
-      <c r="S29" s="67">
+      <c r="S29" s="55">
         <f t="shared" si="0"/>
         <v>-42</v>
       </c>
@@ -2669,7 +2672,7 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="AD29" s="30">
+      <c r="AD29" s="73">
         <f t="shared" si="4"/>
         <v>117</v>
       </c>
@@ -2974,7 +2977,8 @@
     <mergeCell ref="U6:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3018,103 +3022,103 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
@@ -3128,12 +3132,12 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="61"/>
       <c r="L6" s="45" t="s">
         <v>72</v>
@@ -3141,10 +3145,10 @@
       <c r="M6" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="65" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="18"/>
@@ -3163,10 +3167,10 @@
       </c>
       <c r="Z6" s="62"/>
       <c r="AA6" s="62"/>
-      <c r="AC6" s="70" t="s">
+      <c r="AC6" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="AD6" s="71"/>
+      <c r="AD6" s="70"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
@@ -3201,8 +3205,8 @@
       <c r="M7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="66"/>
-      <c r="O7" s="64"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="17" t="s">
         <v>3</v>
@@ -3388,7 +3392,7 @@
       <c r="O11" s="37"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="32"/>
-      <c r="R11" s="72">
+      <c r="R11" s="56">
         <v>6</v>
       </c>
       <c r="S11" s="49">
@@ -3415,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="30">
-        <f t="shared" ref="AC11:AD18" si="4">G11+H11+I11+J11+K11+L11+M11+N11+O11+R11+Z11</f>
+        <f t="shared" ref="AD11:AD18" si="4">G11+H11+I11+J11+K11+L11+M11+N11+O11+R11+Z11</f>
         <v>6</v>
       </c>
     </row>
@@ -3927,103 +3931,103 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:30" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
     </row>
     <row r="3" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
@@ -4037,12 +4041,12 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="61"/>
       <c r="L6" s="45" t="s">
         <v>72</v>
@@ -4050,10 +4054,10 @@
       <c r="M6" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="O6" s="65" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="18"/>
@@ -4072,10 +4076,10 @@
       </c>
       <c r="Z6" s="62"/>
       <c r="AA6" s="62"/>
-      <c r="AC6" s="68" t="s">
+      <c r="AC6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AD6" s="69"/>
+      <c r="AD6" s="72"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
@@ -4110,8 +4114,8 @@
       <c r="M7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="66"/>
-      <c r="O7" s="64"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="17" t="s">
         <v>3</v>
